--- a/result2.xlsx
+++ b/result2.xlsx
@@ -7,40 +7,56 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="drops" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>heading</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>uav</t>
   </si>
   <si>
     <t>t_release</t>
   </si>
   <si>
-    <t>fuse</t>
-  </si>
-  <si>
-    <t>explosion</t>
+    <t>fuse_delay</t>
+  </si>
+  <si>
+    <t>t_explosion</t>
+  </si>
+  <si>
+    <t>explosion_x</t>
+  </si>
+  <si>
+    <t>explosion_y</t>
+  </si>
+  <si>
+    <t>explosion_z</t>
   </si>
   <si>
     <t>intervals</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>[1.78335823e+04 9.86063949e+00 1.79877500e+03]</t>
-  </si>
-  <si>
-    <t>[(2.650000000000002, 7.000000000000005)]</t>
+    <t>marginal</t>
+  </si>
+  <si>
+    <t>FY1</t>
+  </si>
+  <si>
+    <t>FY2</t>
+  </si>
+  <si>
+    <t>FY3</t>
+  </si>
+  <si>
+    <t>2.359754-6.923560</t>
+  </si>
+  <si>
+    <t>total_shield</t>
   </si>
 </sst>
 </file>
@@ -398,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,51 +442,115 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.5776872334515726</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.5776872334515726</v>
+      </c>
+      <c r="E2">
+        <v>17880.51512460432</v>
+      </c>
+      <c r="F2">
+        <v>7.633903846187297</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>4.56380583882332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>6774.045587985213</v>
+      </c>
+      <c r="F3">
+        <v>1400.000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1400</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>6000</v>
+      </c>
+      <c r="F4">
+        <v>-3000</v>
+      </c>
+      <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>70</v>
-      </c>
-      <c r="B2">
-        <v>0.2855993321445265</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>4.350000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>0.2855993321445265</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>4.350000000000003</v>
+        <v>4.56380583882332</v>
       </c>
     </row>
   </sheetData>
